--- a/va_facility_data_2025-02-20/Dwight D. Eisenhower Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Dwight%20D.%20Eisenhower%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Dwight D. Eisenhower Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Dwight%20D.%20Eisenhower%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rfb6523dde4724d6f862eb4672e817576"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1996dc80ed0b4ca5bb22bfe2b05da8a5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbd76a8e222eb467684986b23581fa953"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R67ecb5dfc72f4248b3f86113ebaef1c6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R757b5eeee9924cc298e7264a95d06028"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7b989ef4f9c848acbebc95231df3d037"/>
   </x:sheets>
 </x:workbook>
 </file>
